--- a/Depth Damaged States Second Crack Pipe 4/PCs at R.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at R.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.0434457227668122</v>
+        <v>0.04346061451737711</v>
       </c>
       <c r="C2">
-        <v>-0.1955910286779371</v>
+        <v>-0.1949354437491366</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.02561888146325936</v>
+        <v>-0.02566691276721682</v>
       </c>
       <c r="C3">
-        <v>-0.3471354212950116</v>
+        <v>-0.345389485432891</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.09137685118002792</v>
+        <v>0.09129984849215368</v>
       </c>
       <c r="C4">
-        <v>0.5287333655869022</v>
+        <v>0.5275278924569102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>0.1406929208757948</v>
+        <v>0.1407055506499899</v>
       </c>
       <c r="C5">
-        <v>-0.3617794386610282</v>
+        <v>-0.3602985194608619</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1367298677511163</v>
+        <v>0.1366755716739975</v>
       </c>
       <c r="C6">
-        <v>0.04153756897752349</v>
+        <v>0.03676266634559655</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.425670791641102</v>
+        <v>0.4256831295038078</v>
       </c>
       <c r="C7">
-        <v>0.1320262527055305</v>
+        <v>0.1351527988296268</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.3875820834705622</v>
+        <v>0.3874550877375901</v>
       </c>
       <c r="C8">
-        <v>-0.3654842824543218</v>
+        <v>-0.3807904616935504</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.07969017743999289</v>
+        <v>0.07968010149356451</v>
       </c>
       <c r="C9">
-        <v>0.2737386493096671</v>
+        <v>0.2667472435853089</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.5529277045644478</v>
+        <v>0.552950445539106</v>
       </c>
       <c r="C10">
-        <v>-0.01652445829818467</v>
+        <v>-0.01248300409136403</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.1573657239167737</v>
+        <v>0.1573863220214999</v>
       </c>
       <c r="C11">
-        <v>0.05960465511998962</v>
+        <v>0.06723339341275245</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.3638792366301888</v>
+        <v>-0.3638663655288448</v>
       </c>
       <c r="C12">
-        <v>0.01107600370578344</v>
+        <v>0.01102512915124795</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.3531215443798362</v>
+        <v>-0.3532388052048041</v>
       </c>
       <c r="C13">
-        <v>-0.2470924955495166</v>
+        <v>-0.252678093913896</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>-0.1406661113824003</v>
+        <v>-0.1407345591953378</v>
       </c>
       <c r="C14">
-        <v>0.2804354613843622</v>
+        <v>0.2714236112426232</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.07377658547195273</v>
+        <v>-0.07369506778062344</v>
       </c>
       <c r="C15">
-        <v>-0.2240979728192657</v>
+        <v>-0.2115150976021346</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.003028684032754254</v>
+        <v>0.002915719148135049</v>
       </c>
       <c r="C16">
-        <v>-0.09104126865483093</v>
+        <v>-0.1017092837601836</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.003973146543361932</v>
+        <v>-0.003905432081165423</v>
       </c>
       <c r="C17">
-        <v>0.03121363327770444</v>
+        <v>0.03787105064831471</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Second Crack Pipe 4/PCs at R.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at R.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.04346061451737711</v>
+        <v>0.04352703914852966</v>
       </c>
       <c r="C2">
-        <v>-0.1949354437491366</v>
+        <v>-0.1859241290933605</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.02566691276721682</v>
+        <v>-0.02565587424673664</v>
       </c>
       <c r="C3">
-        <v>-0.345389485432891</v>
+        <v>-0.347112309470367</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.09129984849215368</v>
+        <v>0.09130917296212129</v>
       </c>
       <c r="C4">
-        <v>0.5275278924569102</v>
+        <v>0.5205335838175501</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>0.1407055506499899</v>
+        <v>0.1407264577336982</v>
       </c>
       <c r="C5">
-        <v>-0.3602985194608619</v>
+        <v>-0.3562054692811555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1366755716739975</v>
+        <v>0.1365801548787149</v>
       </c>
       <c r="C6">
-        <v>0.03676266634559655</v>
+        <v>0.03191918419370631</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.4256831295038078</v>
+        <v>0.4256091460202764</v>
       </c>
       <c r="C7">
-        <v>0.1351527988296268</v>
+        <v>0.1326234609464499</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.3874550877375901</v>
+        <v>0.387497880336328</v>
       </c>
       <c r="C8">
-        <v>-0.3807904616935504</v>
+        <v>-0.3793809547011148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.07968010149356451</v>
+        <v>0.07970100427750651</v>
       </c>
       <c r="C9">
-        <v>0.2667472435853089</v>
+        <v>0.2703682930351588</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.552950445539106</v>
+        <v>0.5529856218129925</v>
       </c>
       <c r="C10">
-        <v>-0.01248300409136403</v>
+        <v>-0.0180458906639075</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.1573863220214999</v>
+        <v>0.1573638192463827</v>
       </c>
       <c r="C11">
-        <v>0.06723339341275245</v>
+        <v>0.06349312328929377</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.3638663655288448</v>
+        <v>-0.3638743103995788</v>
       </c>
       <c r="C12">
-        <v>0.01102512915124795</v>
+        <v>0.007665347098700104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.3532388052048041</v>
+        <v>-0.3532615717166662</v>
       </c>
       <c r="C13">
-        <v>-0.252678093913896</v>
+        <v>-0.2622057855656936</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>-0.1407345591953378</v>
+        <v>-0.1406593506252099</v>
       </c>
       <c r="C14">
-        <v>0.2714236112426232</v>
+        <v>0.2785728733302939</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.07369506778062344</v>
+        <v>-0.07374420783335736</v>
       </c>
       <c r="C15">
-        <v>-0.2115150976021346</v>
+        <v>-0.2200253420549833</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.002915719148135049</v>
+        <v>0.0029183561513963</v>
       </c>
       <c r="C16">
-        <v>-0.1017092837601836</v>
+        <v>-0.1042442078322221</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.003905432081165423</v>
+        <v>-0.00390275612779649</v>
       </c>
       <c r="C17">
-        <v>0.03787105064831471</v>
+        <v>0.03771552799532983</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Second Crack Pipe 4/PCs at R.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at R.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.04352703914852966</v>
+        <v>0.04347946725289499</v>
       </c>
       <c r="C2">
-        <v>-0.1859241290933605</v>
+        <v>-0.1939596374787607</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.02565587424673664</v>
+        <v>-0.02569761831736754</v>
       </c>
       <c r="C3">
-        <v>-0.347112309470367</v>
+        <v>-0.3516465272167756</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.09130917296212129</v>
+        <v>0.09119588401837582</v>
       </c>
       <c r="C4">
-        <v>0.5205335838175501</v>
+        <v>0.5163541689608068</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>0.1407264577336982</v>
+        <v>0.1408039466271324</v>
       </c>
       <c r="C5">
-        <v>-0.3562054692811555</v>
+        <v>-0.3485913201265082</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1365801548787149</v>
+        <v>0.1367151699348035</v>
       </c>
       <c r="C6">
-        <v>0.03191918419370631</v>
+        <v>0.03909464021695645</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.4256091460202764</v>
+        <v>0.4256506979483463</v>
       </c>
       <c r="C7">
-        <v>0.1326234609464499</v>
+        <v>0.1326950546932967</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.387497880336328</v>
+        <v>0.3873826698491664</v>
       </c>
       <c r="C8">
-        <v>-0.3793809547011148</v>
+        <v>-0.389886956290172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.07970100427750651</v>
+        <v>0.07945036306217389</v>
       </c>
       <c r="C9">
-        <v>0.2703682930351588</v>
+        <v>0.2535395216609476</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.5529856218129925</v>
+        <v>0.5530058106659657</v>
       </c>
       <c r="C10">
-        <v>-0.0180458906639075</v>
+        <v>-0.01388457528129947</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.1573638192463827</v>
+        <v>0.1573830891862086</v>
       </c>
       <c r="C11">
-        <v>0.06349312328929377</v>
+        <v>0.06562196948424935</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.3638743103995788</v>
+        <v>-0.3639087361843189</v>
       </c>
       <c r="C12">
-        <v>0.007665347098700104</v>
+        <v>0.006692202857746783</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.3532615717166662</v>
+        <v>-0.3533773860940383</v>
       </c>
       <c r="C13">
-        <v>-0.2622057855656936</v>
+        <v>-0.2690566977756325</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>-0.1406593506252099</v>
+        <v>-0.1404970623387202</v>
       </c>
       <c r="C14">
-        <v>0.2785728733302939</v>
+        <v>0.2831391637069788</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.07374420783335736</v>
+        <v>-0.07353604510650566</v>
       </c>
       <c r="C15">
-        <v>-0.2200253420549833</v>
+        <v>-0.209460663690553</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.0029183561513963</v>
+        <v>0.002709126943057505</v>
       </c>
       <c r="C16">
-        <v>-0.1042442078322221</v>
+        <v>-0.1121177152412177</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.00390275612779649</v>
+        <v>-0.003893296495922256</v>
       </c>
       <c r="C17">
-        <v>0.03771552799532983</v>
+        <v>0.04011349219002069</v>
       </c>
     </row>
   </sheetData>
